--- a/biology/Botanique/Scilla_morrisii/Scilla_morrisii.xlsx
+++ b/biology/Botanique/Scilla_morrisii/Scilla_morrisii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Scille de Chypre, Scilla morrisii, est une espèce de plantes  de la famille des Hyacinthaceae, elle fait partie du top 50 des espèces gravement menacées. C’est une espèce endémique de l’île de Chypre : on la trouve uniquement dans le nord-ouest de Chypre sur trois sites. Elle pousse à une altitude de 250 à 900 m, sur un terrain humide, ombragé, dans les crevasses, souvent sous de vieux chênes et arbustes. 
 C'est une plante vivace qui ressemble à un petit oignon (bulbe), elle dispose de 3 à 6 feuilles épaisses et linéaires qui peuvent atteindre 70 cm de long et 0.5 à 1.5 cm de large. Chacune de ses tiges portent 1 à 4 fleurs réunis en grappes lâches. Les fleurs sont de couleur lilas ou bleu, teintée d'un blanc laiteux. Sa floraison dure de mars à avril. Toutes les espèces de scille ont des propriétés toxiques, elles entrainent de graves troubles digestifs.
